--- a/trunk/医学院需求/StudentInfo.xlsx
+++ b/trunk/医学院需求/StudentInfo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="154">
   <si>
     <t>Field Name</t>
   </si>
@@ -331,10 +331,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>来源洲别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Country</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -607,6 +603,14 @@
   </si>
   <si>
     <t>Msn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源洲别 （0 亚洲 1 欧洲 2 非洲 3 北美洲 4 南美洲 5 大洋洲）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1014,7 +1018,7 @@
   <dimension ref="A1:S50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1025,7 +1029,7 @@
     <col min="4" max="4" width="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="25.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1046,7 +1050,9 @@
       <c r="B2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
@@ -1143,7 +1149,9 @@
       <c r="B10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
@@ -1179,7 +1187,9 @@
       <c r="B13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="D13" s="2" t="s">
         <v>46</v>
       </c>
@@ -1380,97 +1390,95 @@
         <v>45</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="C34" s="3"/>
       <c r="D34" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="C36" t="s">
         <v>77</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>45</v>
@@ -1479,62 +1487,64 @@
         <v>77</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:19">
       <c r="A40" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>63</v>
@@ -1543,43 +1553,49 @@
         <v>77</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:19">
       <c r="A43" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="C43" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="D43" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:19">
       <c r="A45" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1599,16 +1615,16 @@
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1628,7 +1644,7 @@
     </row>
     <row r="47" spans="1:19">
       <c r="A47" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>19</v>
@@ -1637,7 +1653,7 @@
         <v>16</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1671,7 +1687,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>42</v>
@@ -1680,21 +1696,21 @@
         <v>77</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1709,7 +1725,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1720,7 +1736,7 @@
     <col min="4" max="4" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1750,155 +1766,168 @@
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="C4" t="s">
+        <v>152</v>
+      </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" t="s">
         <v>126</v>
-      </c>
-      <c r="D5" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" t="s">
         <v>129</v>
-      </c>
-      <c r="D6" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" t="s">
         <v>132</v>
-      </c>
-      <c r="D9" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" t="s">
         <v>136</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" t="s">
         <v>142</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:4">
